--- a/Syllabus.xlsx
+++ b/Syllabus.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shankerltarachandani/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shankerltarachandani/Desktop/bapProject/BAPProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6DC78D-1A0B-6E48-B7B8-A6E7ACE645BA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2628CC75-E7F7-014A-8EB7-36C1CAFBB705}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -428,7 +428,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
